--- a/PastResultsOLD.xlsx
+++ b/PastResultsOLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D9141-8F59-4493-875E-983134E009BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A208E41-2205-40E8-8C22-FD1AF81B7CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="10" activeTab="24" xr2:uid="{00EBB926-0127-40AF-B7AF-FD3BAC47F36A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00EBB926-0127-40AF-B7AF-FD3BAC47F36A}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1053,6 +1053,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11865,8 +11866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:AL65"/>
   <sheetViews>
-    <sheetView topLeftCell="N39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11922,6 +11923,10 @@
         <f>MIN('602'!$J$3:$J$5)</f>
         <v>1</v>
       </c>
+      <c r="G5" s="10">
+        <f>D5/C5</f>
+        <v>0.6</v>
+      </c>
       <c r="I5" t="s">
         <v>86</v>
       </c>
@@ -11993,20 +11998,24 @@
         <f>MIN('702'!$J$3:$J$5)</f>
         <v>4</v>
       </c>
+      <c r="G6" s="10">
+        <f t="shared" ref="G6:G21" si="0">D6/C6</f>
+        <v>0.41176470588235292</v>
+      </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
         <v>15.117647058823529</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
+        <f t="shared" ref="J6:L6" si="1">AVERAGE(D5:D30)</f>
         <v>7.5882352941176467</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7058823529411766</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8235294117647061</v>
       </c>
       <c r="AJ6" s="34"/>
@@ -12027,12 +12036,16 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E10" si="1">C7-D7-F7</f>
+        <f t="shared" ref="E7:E10" si="2">C7-D7-F7</f>
         <v>5</v>
       </c>
       <c r="F7">
         <f>MIN('802'!$J$3:$J$5)</f>
         <v>2</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -12042,11 +12055,11 @@
         <v>0.50194552529182879</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
+        <f t="shared" ref="K7:L7" si="3">K6/$I$6</f>
         <v>0.31128404669260701</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18677042801556423</v>
       </c>
       <c r="P7" t="s">
@@ -12118,12 +12131,16 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F8">
         <f>MIN('1002'!$J$3:$J$5)</f>
         <v>3</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="P8" t="s">
         <v>18</v>
@@ -12133,7 +12150,7 @@
         <v>5</v>
       </c>
       <c r="R8" s="14">
-        <f t="shared" ref="R8:R24" si="3">Q8/$Q$5</f>
+        <f t="shared" ref="R8:R24" si="4">Q8/$Q$5</f>
         <v>1.25</v>
       </c>
       <c r="T8" t="s">
@@ -12144,7 +12161,7 @@
         <v>7</v>
       </c>
       <c r="V8" s="14">
-        <f t="shared" ref="V8:V24" si="4">U8/$U$5</f>
+        <f t="shared" ref="V8:V24" si="5">U8/$U$5</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="X8" t="s">
@@ -12206,12 +12223,16 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F9">
         <f>MIN('1302'!$J$3:$J$5)</f>
         <v>3</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="P9" t="s">
         <v>19</v>
@@ -12221,7 +12242,7 @@
         <v>5</v>
       </c>
       <c r="R9" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="T9" t="s">
@@ -12232,7 +12253,7 @@
         <v>4</v>
       </c>
       <c r="V9" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="X9" t="s">
@@ -12243,7 +12264,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="14">
-        <f t="shared" ref="Z9:Z24" si="5">Y9/Y$5</f>
+        <f t="shared" ref="Z9:Z24" si="6">Y9/Y$5</f>
         <v>1.25</v>
       </c>
       <c r="AB9" t="s">
@@ -12254,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="14">
-        <f t="shared" ref="AD9:AD24" si="6">AC9/AC$5</f>
+        <f t="shared" ref="AD9:AD24" si="7">AC9/AC$5</f>
         <v>0</v>
       </c>
       <c r="AF9" t="s">
@@ -12265,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="14">
-        <f t="shared" ref="AH9:AH24" si="7">AG9/AG$5</f>
+        <f t="shared" ref="AH9:AH24" si="8">AG9/AG$5</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="34" t="s">
@@ -12276,7 +12297,7 @@
         <v>20</v>
       </c>
       <c r="AL9" s="36">
-        <f t="shared" ref="AL9:AL24" si="8">AK9/AK$5</f>
+        <f t="shared" ref="AL9:AL24" si="9">AK9/AK$5</f>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -12294,13 +12315,17 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F10">
         <f>MIN('1402'!$J$3:$J$5)</f>
         <v>4</v>
       </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
       <c r="P10" t="s">
         <v>13</v>
       </c>
@@ -12309,7 +12334,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="T10" t="s">
@@ -12320,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X10" t="s">
@@ -12331,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB10" t="s">
@@ -12342,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AF10" t="s">
@@ -12353,7 +12378,7 @@
         <v>7</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
       <c r="AJ10" s="34" t="s">
@@ -12364,7 +12389,7 @@
         <v>22</v>
       </c>
       <c r="AL10" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.333333333333333</v>
       </c>
     </row>
@@ -12382,13 +12407,17 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="9">C11-D11-F11</f>
+        <f t="shared" ref="E11" si="10">C11-D11-F11</f>
         <v>5</v>
       </c>
       <c r="F11">
         <f>MIN('1602'!$J$3:$J$5)</f>
         <v>5</v>
       </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="P11" t="s">
         <v>16</v>
       </c>
@@ -12397,7 +12426,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="T11" t="s">
@@ -12408,7 +12437,7 @@
         <v>2</v>
       </c>
       <c r="V11" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="X11" t="s">
@@ -12419,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="Z11" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="AB11" t="s">
@@ -12430,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="AD11" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AF11" t="s">
@@ -12441,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AH11" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AJ11" s="34" t="s">
@@ -12452,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12470,13 +12499,17 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12" si="10">C12-D12-F12</f>
+        <f t="shared" ref="E12" si="11">C12-D12-F12</f>
         <v>4</v>
       </c>
       <c r="F12">
         <f>MIN('2002'!$J$3:$J$5)</f>
         <v>0</v>
       </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
       <c r="P12" t="s">
         <v>15</v>
       </c>
@@ -12485,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12" t="s">
@@ -12496,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="X12" t="s">
@@ -12507,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB12" t="s">
@@ -12518,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF12" t="s">
@@ -12529,7 +12562,7 @@
         <v>1</v>
       </c>
       <c r="AH12" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AJ12" s="34" t="s">
@@ -12540,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="AL12" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -12558,12 +12591,16 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="11">C13-D13-F13</f>
+        <f t="shared" ref="E13" si="12">C13-D13-F13</f>
         <v>4</v>
       </c>
       <c r="F13">
         <f>MIN('2102'!$J$3:$J$5)</f>
         <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
       </c>
       <c r="P13" t="s">
         <v>12</v>
@@ -12573,7 +12610,7 @@
         <v>11</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.75</v>
       </c>
       <c r="T13" t="s">
@@ -12584,7 +12621,7 @@
         <v>3</v>
       </c>
       <c r="V13" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X13" t="s">
@@ -12595,7 +12632,7 @@
         <v>7</v>
       </c>
       <c r="Z13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="AB13" t="s">
@@ -12606,7 +12643,7 @@
         <v>2</v>
       </c>
       <c r="AD13" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF13" t="s">
@@ -12617,7 +12654,7 @@
         <v>9</v>
       </c>
       <c r="AH13" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.25</v>
       </c>
       <c r="AJ13" s="34" t="s">
@@ -12628,7 +12665,7 @@
         <v>10</v>
       </c>
       <c r="AL13" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -12646,13 +12683,17 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14" si="12">C14-D14-F14</f>
+        <f t="shared" ref="E14" si="13">C14-D14-F14</f>
         <v>4</v>
       </c>
       <c r="F14">
         <f>MIN('2202'!$J$3:$J$5)</f>
         <v>4</v>
       </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="P14" t="s">
         <v>9</v>
       </c>
@@ -12661,7 +12702,7 @@
         <v>11</v>
       </c>
       <c r="R14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.75</v>
       </c>
       <c r="T14" t="s">
@@ -12672,7 +12713,7 @@
         <v>7</v>
       </c>
       <c r="V14" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="X14" t="s">
@@ -12683,7 +12724,7 @@
         <v>5</v>
       </c>
       <c r="Z14" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="AB14" t="s">
@@ -12694,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="AD14" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AF14" t="s">
@@ -12705,7 +12746,7 @@
         <v>7</v>
       </c>
       <c r="AH14" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
       <c r="AJ14" s="34" t="s">
@@ -12716,7 +12757,7 @@
         <v>10</v>
       </c>
       <c r="AL14" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -12734,12 +12775,16 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="13">C15-D15-F15</f>
+        <f t="shared" ref="E15" si="14">C15-D15-F15</f>
         <v>5</v>
       </c>
       <c r="F15">
         <f>MIN('2302'!$J$3:$J$5)</f>
         <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="P15" t="s">
         <v>8</v>
@@ -12749,7 +12794,7 @@
         <v>8</v>
       </c>
       <c r="R15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="T15" t="s">
@@ -12760,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X15" t="s">
@@ -12771,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB15" t="s">
@@ -12782,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF15" t="s">
@@ -12793,7 +12838,7 @@
         <v>2</v>
       </c>
       <c r="AH15" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="AJ15" s="34" t="s">
@@ -12804,7 +12849,7 @@
         <v>16</v>
       </c>
       <c r="AL15" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -12822,13 +12867,17 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" si="14">C16-D16-F16</f>
+        <f t="shared" ref="E16" si="15">C16-D16-F16</f>
         <v>5</v>
       </c>
       <c r="F16">
         <f>MIN('2702'!$J$3:$J$5)</f>
         <v>3</v>
       </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
       <c r="P16" t="s">
         <v>7</v>
       </c>
@@ -12837,7 +12886,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="T16" t="s">
@@ -12848,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="X16" t="s">
@@ -12859,7 +12908,7 @@
         <v>2</v>
       </c>
       <c r="Z16" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="AB16" t="s">
@@ -12870,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="AD16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AF16" t="s">
@@ -12881,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="AH16" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AJ16" s="34" t="s">
@@ -12892,7 +12941,7 @@
         <v>3</v>
       </c>
       <c r="AL16" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -12910,13 +12959,17 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="15">C17-D17-F17</f>
+        <f t="shared" ref="E17" si="16">C17-D17-F17</f>
         <v>3</v>
       </c>
       <c r="F17">
         <f>MIN('2802'!$J$3:$J$5)</f>
         <v>3</v>
       </c>
+      <c r="G17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
       <c r="P17" t="s">
         <v>6</v>
       </c>
@@ -12925,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="T17" t="s">
@@ -12936,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="X17" t="s">
@@ -12947,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB17" t="s">
@@ -12958,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="AD17" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AF17" t="s">
@@ -12969,7 +13022,7 @@
         <v>2</v>
       </c>
       <c r="AH17" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="AJ17" s="34" t="s">
@@ -12980,7 +13033,7 @@
         <v>2</v>
       </c>
       <c r="AL17" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -12998,13 +13051,17 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18" si="16">C18-D18-F18</f>
+        <f t="shared" ref="E18" si="17">C18-D18-F18</f>
         <v>7</v>
       </c>
       <c r="F18">
         <f>MIN('0603'!$J$3:$J$5)</f>
         <v>5</v>
       </c>
+      <c r="G18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.47826086956521741</v>
+      </c>
       <c r="P18" t="s">
         <v>5</v>
       </c>
@@ -13013,7 +13070,7 @@
         <v>2</v>
       </c>
       <c r="R18" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="T18" t="s">
@@ -13024,7 +13081,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X18" t="s">
@@ -13035,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="Z18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="AB18" t="s">
@@ -13046,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF18" t="s">
@@ -13057,7 +13114,7 @@
         <v>1</v>
       </c>
       <c r="AH18" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AJ18" s="34" t="s">
@@ -13068,7 +13125,7 @@
         <v>2</v>
       </c>
       <c r="AL18" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -13086,13 +13143,17 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="17">C19-D19-F19</f>
+        <f t="shared" ref="E19" si="18">C19-D19-F19</f>
         <v>4</v>
       </c>
       <c r="F19">
         <f>MIN('0703'!$J$3:$J$5)</f>
         <v>2</v>
       </c>
+      <c r="G19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
       <c r="P19" t="s">
         <v>4</v>
       </c>
@@ -13101,7 +13162,7 @@
         <v>3</v>
       </c>
       <c r="R19" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="T19" t="s">
@@ -13112,7 +13173,7 @@
         <v>5</v>
       </c>
       <c r="V19" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="X19" t="s">
@@ -13123,7 +13184,7 @@
         <v>6</v>
       </c>
       <c r="Z19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="AB19" t="s">
@@ -13134,7 +13195,7 @@
         <v>4</v>
       </c>
       <c r="AD19" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AF19" t="s">
@@ -13145,7 +13206,7 @@
         <v>7</v>
       </c>
       <c r="AH19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
       <c r="AJ19" s="34" t="s">
@@ -13156,7 +13217,7 @@
         <v>21</v>
       </c>
       <c r="AL19" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
     </row>
@@ -13174,13 +13235,17 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="18">C20-D20-F20</f>
+        <f t="shared" ref="E20" si="19">C20-D20-F20</f>
         <v>6</v>
       </c>
       <c r="F20">
         <f>MIN('0803'!$J$3:$J$5)</f>
         <v>5</v>
       </c>
+      <c r="G20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.47619047619047616</v>
+      </c>
       <c r="P20" t="s">
         <v>3</v>
       </c>
@@ -13189,7 +13254,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="T20" t="s">
@@ -13200,7 +13265,7 @@
         <v>6</v>
       </c>
       <c r="V20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="X20" t="s">
@@ -13211,7 +13276,7 @@
         <v>7</v>
       </c>
       <c r="Z20" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="AB20" t="s">
@@ -13222,7 +13287,7 @@
         <v>3</v>
       </c>
       <c r="AD20" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="AF20" t="s">
@@ -13233,7 +13298,7 @@
         <v>4</v>
       </c>
       <c r="AH20" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AJ20" s="34" t="s">
@@ -13244,7 +13309,7 @@
         <v>18</v>
       </c>
       <c r="AL20" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -13262,12 +13327,16 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="19">C21-D21-F21</f>
+        <f t="shared" ref="E21" si="20">C21-D21-F21</f>
         <v>3</v>
       </c>
       <c r="F21">
         <f>MIN('0903'!$J$3:$J$5)</f>
         <v>2</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P21" t="s">
         <v>2</v>
@@ -13277,7 +13346,7 @@
         <v>9</v>
       </c>
       <c r="R21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
       <c r="T21" t="s">
@@ -13288,7 +13357,7 @@
         <v>3</v>
       </c>
       <c r="V21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X21" t="s">
@@ -13299,7 +13368,7 @@
         <v>5</v>
       </c>
       <c r="Z21" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="AB21" t="s">
@@ -13310,7 +13379,7 @@
         <v>4</v>
       </c>
       <c r="AD21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AF21" t="s">
@@ -13321,7 +13390,7 @@
         <v>11</v>
       </c>
       <c r="AH21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.75</v>
       </c>
       <c r="AJ21" s="34" t="s">
@@ -13332,11 +13401,15 @@
         <v>3</v>
       </c>
       <c r="AL21" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="G22" s="52">
+        <f>MAX(G5:G21)</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="P22" t="s">
         <v>1</v>
       </c>
@@ -13345,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="T22" t="s">
@@ -13356,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X22" t="s">
@@ -13367,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="Z22" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="AB22" t="s">
@@ -13378,7 +13451,7 @@
         <v>1</v>
       </c>
       <c r="AD22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AF22" t="s">
@@ -13389,7 +13462,7 @@
         <v>3</v>
       </c>
       <c r="AH22" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="AJ22" s="34" t="s">
@@ -13400,7 +13473,7 @@
         <v>3</v>
       </c>
       <c r="AL22" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13413,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="T23" t="s">
@@ -13424,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="V23" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="X23" t="s">
@@ -13435,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="Z23" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="AB23" t="s">
@@ -13446,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF23" t="s">
@@ -13457,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="34" t="s">
@@ -13468,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13485,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T24" t="s">
@@ -13496,7 +13569,7 @@
         <v>1</v>
       </c>
       <c r="V24" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="X24" t="s">
@@ -13507,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="Z24" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="AB24" t="s">
@@ -13518,7 +13591,7 @@
         <v>2</v>
       </c>
       <c r="AD24" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF24" t="s">
@@ -13529,7 +13602,7 @@
         <v>6</v>
       </c>
       <c r="AH24" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="AJ24" s="34" t="s">
@@ -13540,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13655,7 +13728,7 @@
         <v>19</v>
       </c>
       <c r="Q29" s="37">
-        <f t="shared" ref="Q29:Q44" si="20">SUM(Q9,U9,Y9,AC9,AG9,AK9)</f>
+        <f t="shared" ref="Q29:Q44" si="21">SUM(Q9,U9,Y9,AC9,AG9,AK9)</f>
         <v>34</v>
       </c>
       <c r="R29" s="38">
@@ -13698,18 +13771,18 @@
         <v>41</v>
       </c>
       <c r="O30" s="11">
-        <f t="shared" ref="O30:O31" si="21">N30/N$33</f>
+        <f t="shared" ref="O30:O31" si="22">N30/N$33</f>
         <v>0.35193133047210301</v>
       </c>
       <c r="P30" s="37" t="s">
         <v>13</v>
       </c>
       <c r="Q30" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="R30" s="38">
-        <f t="shared" ref="R30:R43" si="22">Q30/Q$26</f>
+        <f t="shared" ref="R30:R43" si="23">Q30/Q$26</f>
         <v>1.6</v>
       </c>
       <c r="T30" t="s">
@@ -13748,18 +13821,18 @@
         <v>38</v>
       </c>
       <c r="O31" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.3261802575107296</v>
       </c>
       <c r="P31" s="37" t="s">
         <v>16</v>
       </c>
       <c r="Q31" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="R31" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="T31" t="s">
@@ -13782,11 +13855,11 @@
         <v>15</v>
       </c>
       <c r="Q32" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="R32" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
       <c r="T32" t="s">
@@ -13816,7 +13889,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
       <c r="R33" s="38">
@@ -13846,7 +13919,7 @@
         <v>9</v>
       </c>
       <c r="Q34" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>41</v>
       </c>
       <c r="R34" s="38">
@@ -13873,11 +13946,11 @@
         <v>8</v>
       </c>
       <c r="Q35" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>26</v>
       </c>
       <c r="R35" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3</v>
       </c>
       <c r="T35" t="s">
@@ -13900,11 +13973,11 @@
         <v>7</v>
       </c>
       <c r="Q36" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="R36" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="T36" t="s">
@@ -13927,11 +14000,11 @@
         <v>6</v>
       </c>
       <c r="Q37" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="R37" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.35</v>
       </c>
       <c r="T37" t="s">
@@ -13954,11 +14027,11 @@
         <v>5</v>
       </c>
       <c r="Q38" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="R38" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="T38" t="s">
@@ -13984,11 +14057,11 @@
         <v>4</v>
       </c>
       <c r="Q39" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>46</v>
       </c>
       <c r="R39" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="T39" t="s">
@@ -14016,11 +14089,11 @@
         <v>3</v>
       </c>
       <c r="Q40" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
       <c r="R40" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="T40" t="s">
@@ -14046,11 +14119,11 @@
         <v>2</v>
       </c>
       <c r="Q41" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="R41" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.75</v>
       </c>
       <c r="T41" t="s">
@@ -14076,11 +14149,11 @@
         <v>1</v>
       </c>
       <c r="Q42" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="R42" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="T42" t="s">
@@ -14106,11 +14179,11 @@
         <v>0</v>
       </c>
       <c r="Q43" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="R43" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
       <c r="T43" t="s">
@@ -14133,7 +14206,7 @@
         <v>61</v>
       </c>
       <c r="Q44" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="R44" s="38">
@@ -14191,7 +14264,7 @@
         <v>18</v>
       </c>
       <c r="Q48" s="39">
-        <f t="shared" ref="Q48:Q64" si="23">(SUM(Q8,U8,Y8,AC8,AG8))/(SUM($Q$5,$U$5,$Y$5,$AC$5,$AG$5))</f>
+        <f t="shared" ref="Q48:Q64" si="24">(SUM(Q8,U8,Y8,AC8,AG8))/(SUM($Q$5,$U$5,$Y$5,$AC$5,$AG$5))</f>
         <v>1.9411764705882353</v>
       </c>
       <c r="R48" s="39">
@@ -14215,11 +14288,11 @@
         <v>19</v>
       </c>
       <c r="Q49" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="R49" s="39">
-        <f t="shared" ref="R49:R64" si="24">AK9/AK$5</f>
+        <f t="shared" ref="R49:R64" si="25">AK9/AK$5</f>
         <v>6.666666666666667</v>
       </c>
       <c r="S49" s="39">
@@ -14236,11 +14309,11 @@
         <v>13</v>
       </c>
       <c r="Q50" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="R50" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.333333333333333</v>
       </c>
       <c r="S50" s="39">
@@ -14257,11 +14330,11 @@
         <v>16</v>
       </c>
       <c r="Q51" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="R51" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S51" s="39">
@@ -14278,11 +14351,11 @@
         <v>15</v>
       </c>
       <c r="Q52" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="R52" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="S52" s="39">
@@ -14299,11 +14372,11 @@
         <v>12</v>
       </c>
       <c r="Q53" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.8823529411764706</v>
       </c>
       <c r="R53" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="S53" s="39">
@@ -14320,11 +14393,11 @@
         <v>9</v>
       </c>
       <c r="Q54" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.8235294117647058</v>
       </c>
       <c r="R54" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="S54" s="39">
@@ -14341,11 +14414,11 @@
         <v>8</v>
       </c>
       <c r="Q55" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="R55" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.333333333333333</v>
       </c>
       <c r="S55" s="39">
@@ -14363,11 +14436,11 @@
         <v>7</v>
       </c>
       <c r="Q56" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="R56" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S56" s="39">
@@ -14384,11 +14457,11 @@
         <v>6</v>
       </c>
       <c r="Q57" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="R57" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="S57" s="39">
@@ -14405,11 +14478,11 @@
         <v>5</v>
       </c>
       <c r="Q58" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="R58" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="S58" s="39">
@@ -14426,11 +14499,11 @@
         <v>4</v>
       </c>
       <c r="Q59" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="R59" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S59" s="39">
@@ -14447,11 +14520,11 @@
         <v>3</v>
       </c>
       <c r="Q60" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5294117647058822</v>
       </c>
       <c r="R60" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="S60" s="39">
@@ -14468,11 +14541,11 @@
         <v>2</v>
       </c>
       <c r="Q61" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.8823529411764706</v>
       </c>
       <c r="R61" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S61" s="39">
@@ -14489,11 +14562,11 @@
         <v>1</v>
       </c>
       <c r="Q62" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="R62" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S62" s="39">
@@ -14510,11 +14583,11 @@
         <v>0</v>
       </c>
       <c r="Q63" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="R63" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S63" s="39">
@@ -14531,11 +14604,11 @@
         <v>61</v>
       </c>
       <c r="Q64" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="R64" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S64" s="39">
@@ -20840,7 +20913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4D073A-D8E6-4EF7-8CA9-EAF1F9B980F0}">
   <dimension ref="B2:AM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
